--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526A19E-968A-47E7-8C2B-219E4C46D2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF93C3B9-EE31-4ECB-BA31-D464FE601484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="1335" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,18 +365,18 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,14 +716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1291,20 +1291,20 @@
       <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6">
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="6">
         <v>26376</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="6">
         <v>26612</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6">
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="16">
@@ -1483,18 +1483,22 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16">
+        <v>26636</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1051</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86705729166666667</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.51318359375</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="16"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -1529,7 +1533,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -1552,7 +1556,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="16"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -1575,7 +1579,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="16"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -1598,7 +1602,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="16"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -1621,7 +1625,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="16"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -1644,7 +1648,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="16"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -1667,7 +1671,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -1690,7 +1694,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="16"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -1713,7 +1717,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -1736,7 +1740,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
@@ -1759,7 +1763,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
@@ -1782,7 +1786,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
@@ -1805,7 +1809,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="16"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -1828,7 +1832,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="16"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
@@ -1851,7 +1855,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="16"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
@@ -1874,7 +1878,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="16"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
@@ -1897,7 +1901,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
@@ -1920,7 +1924,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
@@ -1943,7 +1947,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="17"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF93C3B9-EE31-4ECB-BA31-D464FE601484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF3D4D-8E01-490D-B9A7-F8A100FC2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="1335" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,25 +1511,33 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C9" s="16">
+        <v>26924</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1036</v>
+      </c>
+      <c r="E9" s="6">
+        <v>28038</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1320</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8764322916666667</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.505859375</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.91269531250000002</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.64453125</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF3D4D-8E01-490D-B9A7-F8A100FC2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78F573-68A1-4B7A-9D0D-768741AB3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="1335" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,10 +1512,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="16">
-        <v>26924</v>
+        <v>26618</v>
       </c>
       <c r="D9" s="7">
-        <v>1036</v>
+        <v>914</v>
       </c>
       <c r="E9" s="6">
         <v>28038</v>
@@ -1525,11 +1525,11 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0.8764322916666667</v>
+        <v>0.86647135416666665</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0.505859375</v>
+        <v>0.4462890625</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="2"/>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78F573-68A1-4B7A-9D0D-768741AB3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBFA50-45E1-4B2D-BC08-00003D662FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="1335" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,10 +1512,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="16">
-        <v>26618</v>
+        <v>26936</v>
       </c>
       <c r="D9" s="7">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E9" s="6">
         <v>28038</v>
@@ -1525,11 +1525,11 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0.86647135416666665</v>
+        <v>0.87682291666666667</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0.4462890625</v>
+        <v>0.447265625</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="2"/>
@@ -1542,17 +1542,21 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="16">
+        <v>26956</v>
+      </c>
+      <c r="D10" s="7">
+        <v>916</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8774739583333333</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.447265625</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="2"/>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBFA50-45E1-4B2D-BC08-00003D662FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE6B6-8097-4842-BE41-E926BED5BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1335" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LcdPanel" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,20 +1543,20 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
       <c r="C10" s="16">
-        <v>26956</v>
+        <v>26858</v>
       </c>
       <c r="D10" s="7">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0.8774739583333333</v>
+        <v>0.87428385416666665</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>0.447265625</v>
+        <v>0.4462890625</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1569,17 +1569,21 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="16">
+        <v>27024</v>
+      </c>
+      <c r="D11" s="7">
+        <v>914</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87968749999999996</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4462890625</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="2"/>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE6B6-8097-4842-BE41-E926BED5BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A360968-9304-4C09-AF7E-F4564B6E8875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1596,17 +1596,21 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="16">
+        <v>27008</v>
+      </c>
+      <c r="D12" s="7">
+        <v>914</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87916666666666665</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4462890625</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="2"/>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A360968-9304-4C09-AF7E-F4564B6E8875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72507D4-19C8-4315-B99F-0C869902FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1623,25 +1623,33 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C13" s="16">
+        <v>26958</v>
+      </c>
+      <c r="D13" s="7">
+        <v>914</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8770</v>
+      </c>
+      <c r="F13" s="7">
+        <v>493</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87753906250000002</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4462890625</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28548177083333331</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.24072265625</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72507D4-19C8-4315-B99F-0C869902FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E94C9-2F29-43CD-B94D-014EBF32FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1272,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1288,7 @@
     <col min="8" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1307,7 @@
       </c>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
       <c r="C2" s="13" t="s">
         <v>2</v>
@@ -1333,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
@@ -1365,8 +1366,9 @@
         <f>IF(F3&gt;0,F3/$H$2,"")</f>
         <v>0.7412109375</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="6">
         <v>26376</v>
@@ -1392,8 +1394,12 @@
         <f>IF(F4&gt;0,F4/$H$2,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="26">
+        <f t="shared" ref="K3:K13" si="0">G3-G4</f>
+        <v>2.6041666666666297E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="6">
         <v>26612</v>
@@ -1404,23 +1410,27 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G28" si="0">IF(C5&gt;0,C5/$G$2,"")</f>
+        <f t="shared" ref="G5:G28" si="1">IF(C5&gt;0,C5/$G$2,"")</f>
         <v>0.86627604166666672</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H28" si="1">IF(D5&gt;0,D5/$H$2,"")</f>
+        <f t="shared" ref="H5:H28" si="2">IF(D5&gt;0,D5/$H$2,"")</f>
         <v>0.55126953125</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:I28" si="2">IF(E5&gt;0,E5/$G$2,"")</f>
+        <f t="shared" ref="I5:I28" si="3">IF(E5&gt;0,E5/$G$2,"")</f>
         <v/>
       </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" ref="J5:J28" si="3">IF(F5&gt;0,F5/$H$2,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J5:J28" si="4">IF(F5&gt;0,F5/$H$2,"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" si="0"/>
+        <v>-7.6822916666666741E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1437,23 +1447,27 @@
         <v>1301</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85852864583333333</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51220703125</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9067057291666667</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63525390625</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="26">
+        <f t="shared" si="0"/>
+        <v>7.7473958333333925E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
@@ -1466,23 +1480,27 @@
       <c r="E7" s="16"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86549479166666665</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52099609375</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="0"/>
+        <v>-6.9661458333333259E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
       <c r="C8" s="16">
         <v>26636</v>
@@ -1493,23 +1511,27 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86705729166666667</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51318359375</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" si="0"/>
+        <v>-1.5625000000000222E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="16">
         <v>26936</v>
@@ -1524,23 +1546,27 @@
         <v>1320</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87682291666666667</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.447265625</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91269531250000002</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64453125</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="26">
+        <f t="shared" si="0"/>
+        <v>-9.765625E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
       <c r="C10" s="16">
         <v>26858</v>
@@ -1551,23 +1577,27 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87428385416666665</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4462890625</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="0"/>
+        <v>2.5390625000000222E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
       <c r="C11" s="16">
         <v>27024</v>
@@ -1578,23 +1608,27 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87968749999999996</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4462890625</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" si="0"/>
+        <v>-5.4036458333333037E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
       <c r="C12" s="16">
         <v>27008</v>
@@ -1605,23 +1639,27 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87916666666666665</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4462890625</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="0"/>
+        <v>5.2083333333330373E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="16">
         <v>26958</v>
@@ -1636,88 +1674,100 @@
         <v>493</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87753906250000002</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4462890625</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28548177083333331</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24072265625</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="26">
+        <f t="shared" si="0"/>
+        <v>1.6276041666666297E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="16">
+        <v>25674</v>
+      </c>
+      <c r="D14" s="7">
+        <v>914</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83574218749999996</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.4462890625</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="26">
+        <f>G13-G14</f>
+        <v>4.1796875000000067E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1728,19 +1778,19 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1751,19 +1801,19 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1774,19 +1824,19 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1797,19 +1847,19 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1820,19 +1870,19 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1843,19 +1893,19 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1866,19 +1916,19 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1889,19 +1939,19 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1912,19 +1962,19 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1935,19 +1985,19 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1958,19 +2008,19 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1981,19 +2031,19 @@
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H28" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J28" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E94C9-2F29-43CD-B94D-014EBF32FFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768D3CA-ED1D-4729-8AC0-3A3BE503A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,6 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,7 +384,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -717,14 +717,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,29 +1286,30 @@
     <col min="3" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1367,7 @@
         <f>IF(F3&gt;0,F3/$H$2,"")</f>
         <v>0.7412109375</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
@@ -1394,8 +1395,8 @@
         <f>IF(F4&gt;0,F4/$H$2,"")</f>
         <v/>
       </c>
-      <c r="K4" s="26">
-        <f t="shared" ref="K3:K13" si="0">G3-G4</f>
+      <c r="K4" s="21">
+        <f t="shared" ref="K3:K15" si="0">IF(AND(G4 &gt; 0,G3 &gt; 0), G3-G4, "")</f>
         <v>2.6041666666666297E-3</v>
       </c>
     </row>
@@ -1425,7 +1426,7 @@
         <f t="shared" ref="J5:J28" si="4">IF(F5&gt;0,F5/$H$2,"")</f>
         <v/>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="21">
         <f t="shared" si="0"/>
         <v>-7.6822916666666741E-3</v>
       </c>
@@ -1462,7 +1463,7 @@
         <f t="shared" si="4"/>
         <v>0.63525390625</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="21">
         <f t="shared" si="0"/>
         <v>7.7473958333333925E-3</v>
       </c>
@@ -1495,7 +1496,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="21">
         <f t="shared" si="0"/>
         <v>-6.9661458333333259E-3</v>
       </c>
@@ -1526,7 +1527,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>-1.5625000000000222E-3</v>
       </c>
@@ -1561,7 +1562,7 @@
         <f t="shared" si="4"/>
         <v>0.64453125</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="21">
         <f t="shared" si="0"/>
         <v>-9.765625E-3</v>
       </c>
@@ -1592,7 +1593,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="21">
         <f t="shared" si="0"/>
         <v>2.5390625000000222E-3</v>
       </c>
@@ -1623,7 +1624,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="21">
         <f t="shared" si="0"/>
         <v>-5.4036458333333037E-3</v>
       </c>
@@ -1654,7 +1655,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="21">
         <f t="shared" si="0"/>
         <v>5.2083333333330373E-4</v>
       </c>
@@ -1689,7 +1690,7 @@
         <f t="shared" si="4"/>
         <v>0.24072265625</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="21">
         <f t="shared" si="0"/>
         <v>1.6276041666666297E-3</v>
       </c>
@@ -1720,24 +1721,28 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="26">
-        <f>G13-G14</f>
+      <c r="K14" s="21">
+        <f t="shared" si="0"/>
         <v>4.1796875000000067E-2</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="16">
+        <v>25846</v>
+      </c>
+      <c r="D15" s="7">
+        <v>915</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="8" t="str">
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8413411458333333</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.44677734375</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1746,6 +1751,10 @@
       <c r="J15" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="0"/>
+        <v>-5.5989583333333481E-3</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -1754,14 +1763,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1770,21 +1773,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="21" t="str">
+        <f>IF(AND(G16 &gt; 0,G15 &gt; 0), G15-G16, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
       <c r="C17" s="16"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1793,21 +1794,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="21" t="str">
+        <f t="shared" ref="K17:K28" si="5">IF(AND(G17 &gt; 0,G16 &gt; 0), G16-G17, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1816,21 +1815,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1839,21 +1836,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1862,21 +1857,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1885,21 +1878,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1908,21 +1899,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="16"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1931,21 +1920,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="16"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1954,21 +1941,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1977,21 +1962,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2000,21 +1983,19 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2023,27 +2004,29 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="20"/>
       <c r="C28" s="17"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J28" s="12" t="str">
         <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K28" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/память.xlsx
+++ b/память.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768D3CA-ED1D-4729-8AC0-3A3BE503A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD18AB56-8425-439F-B101-BEE42395DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="1800" windowWidth="11250" windowHeight="12630" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1800" windowWidth="12600" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LcdPanel" sheetId="1" r:id="rId1"/>
     <sheet name="SmartClock20" sheetId="4" r:id="rId2"/>
+    <sheet name="AT24C32" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>отладка</t>
   </si>
@@ -55,10 +56,19 @@
     <t>#include &lt;EEPROM.h&gt;</t>
   </si>
   <si>
-    <t>венес музыку в AT24CXX</t>
+    <t>до AT24CXX</t>
   </si>
   <si>
-    <t>до AT24CXX</t>
+    <t>перенес алфавит в AT24</t>
+  </si>
+  <si>
+    <t>перенес музыку в AT24</t>
+  </si>
+  <si>
+    <t>до asReference</t>
+  </si>
+  <si>
+    <t>уменьшение</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1284,9 +1294,9 @@
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
@@ -1337,7 +1347,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>26456</v>
@@ -1352,11 +1362,11 @@
         <v>1518</v>
       </c>
       <c r="G3" s="4">
-        <f>IF(C3&gt;0,C3/$G$2,"")</f>
+        <f t="shared" ref="G3:G16" si="0">IF(C3&gt;0,C3/$G$2,"")</f>
         <v>0.86119791666666667</v>
       </c>
       <c r="H3" s="8">
-        <f>IF(D3&gt;0,D3/$H$2,"")</f>
+        <f t="shared" ref="H3:H16" si="1">IF(D3&gt;0,D3/$H$2,"")</f>
         <v>0.6181640625</v>
       </c>
       <c r="I3" s="4">
@@ -1380,11 +1390,11 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4">
-        <f>IF(C4&gt;0,C4/$G$2,"")</f>
+        <f t="shared" si="0"/>
         <v>0.85859375000000004</v>
       </c>
       <c r="H4" s="8">
-        <f>IF(D4&gt;0,D4/$H$2,"")</f>
+        <f t="shared" si="1"/>
         <v>0.52197265625</v>
       </c>
       <c r="I4" s="4" t="str">
@@ -1396,7 +1406,7 @@
         <v/>
       </c>
       <c r="K4" s="21">
-        <f t="shared" ref="K3:K15" si="0">IF(AND(G4 &gt; 0,G3 &gt; 0), G3-G4, "")</f>
+        <f t="shared" ref="K4:K16" si="2">IF(AND(G4&lt;&gt;"",G3&lt;&gt;""),G3-G4,"")</f>
         <v>2.6041666666666297E-3</v>
       </c>
     </row>
@@ -1411,11 +1421,11 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G28" si="1">IF(C5&gt;0,C5/$G$2,"")</f>
+        <f t="shared" si="0"/>
         <v>0.86627604166666672</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H28" si="2">IF(D5&gt;0,D5/$H$2,"")</f>
+        <f t="shared" si="1"/>
         <v>0.55126953125</v>
       </c>
       <c r="I5" s="4" t="str">
@@ -1427,13 +1437,13 @@
         <v/>
       </c>
       <c r="K5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.6822916666666741E-3</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>26374</v>
@@ -1448,11 +1458,11 @@
         <v>1301</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85852864583333333</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51220703125</v>
       </c>
       <c r="I6" s="4">
@@ -1464,7 +1474,7 @@
         <v>0.63525390625</v>
       </c>
       <c r="K6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.7473958333333925E-3</v>
       </c>
     </row>
@@ -1481,11 +1491,11 @@
       <c r="E7" s="16"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.86549479166666665</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.52099609375</v>
       </c>
       <c r="I7" s="4" t="str">
@@ -1497,7 +1507,7 @@
         <v/>
       </c>
       <c r="K7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.9661458333333259E-3</v>
       </c>
     </row>
@@ -1512,11 +1522,11 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.86705729166666667</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51318359375</v>
       </c>
       <c r="I8" s="4" t="str">
@@ -1528,7 +1538,7 @@
         <v/>
       </c>
       <c r="K8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.5625000000000222E-3</v>
       </c>
     </row>
@@ -1547,11 +1557,11 @@
         <v>1320</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87682291666666667</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.447265625</v>
       </c>
       <c r="I9" s="4">
@@ -1563,7 +1573,7 @@
         <v>0.64453125</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.765625E-3</v>
       </c>
     </row>
@@ -1578,11 +1588,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87428385416666665</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4462890625</v>
       </c>
       <c r="I10" s="4" t="str">
@@ -1594,7 +1604,7 @@
         <v/>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5390625000000222E-3</v>
       </c>
     </row>
@@ -1609,11 +1619,11 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87968749999999996</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4462890625</v>
       </c>
       <c r="I11" s="4" t="str">
@@ -1625,7 +1635,7 @@
         <v/>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.4036458333333037E-3</v>
       </c>
     </row>
@@ -1640,11 +1650,11 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87916666666666665</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4462890625</v>
       </c>
       <c r="I12" s="4" t="str">
@@ -1656,7 +1666,7 @@
         <v/>
       </c>
       <c r="K12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2083333333330373E-4</v>
       </c>
     </row>
@@ -1675,11 +1685,11 @@
         <v>493</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87753906250000002</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4462890625</v>
       </c>
       <c r="I13" s="4">
@@ -1691,12 +1701,14 @@
         <v>0.24072265625</v>
       </c>
       <c r="K13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6276041666666297E-3</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="16">
         <v>25674</v>
       </c>
@@ -1706,11 +1718,11 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.83574218749999996</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4462890625</v>
       </c>
       <c r="I14" s="4" t="str">
@@ -1722,7 +1734,7 @@
         <v/>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1796875000000067E-2</v>
       </c>
     </row>
@@ -1737,11 +1749,11 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.8413411458333333</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.44677734375</v>
       </c>
       <c r="I15" s="4" t="str">
@@ -1753,18 +1765,28 @@
         <v/>
       </c>
       <c r="K15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5989583333333481E-3</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="16">
+        <v>25834</v>
+      </c>
+      <c r="D16" s="7">
+        <v>915</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84095052083333333</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.44677734375</v>
+      </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1773,9 +1795,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K16" s="21" t="str">
-        <f>IF(AND(G16 &gt; 0,G15 &gt; 0), G15-G16, "")</f>
-        <v/>
+      <c r="K16" s="21">
+        <f t="shared" si="2"/>
+        <v>3.906249999999778E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1784,8 +1806,14 @@
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="4" t="str">
+        <f>IF(C17&gt;0,C17/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>IF(D17&gt;0,D17/$H$2,"")</f>
+        <v/>
+      </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1795,7 +1823,7 @@
         <v/>
       </c>
       <c r="K17" s="21" t="str">
-        <f t="shared" ref="K17:K28" si="5">IF(AND(G17 &gt; 0,G16 &gt; 0), G16-G17, "")</f>
+        <f>IF(AND(G17&lt;&gt;"",G16&lt;&gt;""),G16-G17,"")</f>
         <v/>
       </c>
     </row>
@@ -1805,8 +1833,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ref="G18:G28" si="5">IF(C18&gt;0,C18/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" ref="H18:H28" si="6">IF(D18&gt;0,D18/$H$2,"")</f>
+        <v/>
+      </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1816,7 +1850,7 @@
         <v/>
       </c>
       <c r="K18" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K18:K28" si="7">IF(AND(G18&lt;&gt;"",G17&lt;&gt;""),G17-G18,"")</f>
         <v/>
       </c>
     </row>
@@ -1826,8 +1860,14 @@
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1837,7 +1877,7 @@
         <v/>
       </c>
       <c r="K19" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1847,8 +1887,14 @@
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1858,7 +1904,7 @@
         <v/>
       </c>
       <c r="K20" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1868,8 +1914,14 @@
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1879,7 +1931,7 @@
         <v/>
       </c>
       <c r="K21" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1889,8 +1941,14 @@
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1900,7 +1958,7 @@
         <v/>
       </c>
       <c r="K22" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1910,8 +1968,14 @@
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1921,7 +1985,7 @@
         <v/>
       </c>
       <c r="K23" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1931,8 +1995,14 @@
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1942,7 +2012,7 @@
         <v/>
       </c>
       <c r="K24" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1952,8 +2022,14 @@
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1963,7 +2039,7 @@
         <v/>
       </c>
       <c r="K25" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1973,8 +2049,14 @@
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1984,7 +2066,7 @@
         <v/>
       </c>
       <c r="K26" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1994,8 +2076,14 @@
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2005,7 +2093,7 @@
         <v/>
       </c>
       <c r="K27" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2015,8 +2103,14 @@
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I28" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2026,7 +2120,7 @@
         <v/>
       </c>
       <c r="K28" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2041,4 +2135,904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88E039B-2BA9-472D-8EF1-217FF82B4AAD}">
+  <dimension ref="B1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14">
+        <v>30720</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2048</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12752</v>
+      </c>
+      <c r="D3" s="5">
+        <v>924</v>
+      </c>
+      <c r="E3" s="15">
+        <v>27756</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1518</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G16" si="0">IF(C3&gt;0,C3/$G$2,"")</f>
+        <v>0.41510416666666666</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H16" si="1">IF(D3&gt;0,D3/$H$2,"")</f>
+        <v>0.451171875</v>
+      </c>
+      <c r="I3" s="4">
+        <f>IF(E3&gt;0,E3/$G$2,"")</f>
+        <v>0.90351562500000004</v>
+      </c>
+      <c r="J3" s="8">
+        <f>IF(F3&gt;0,F3/$H$2,"")</f>
+        <v>0.7412109375</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="16">
+        <v>12862</v>
+      </c>
+      <c r="D4" s="7">
+        <v>990</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41868489583333335</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4833984375</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>IF(E4&gt;0,E4/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f>IF(F4&gt;0,F4/$H$2,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:L19" si="2">IF(AND(G4&lt;&gt;"",G3&lt;&gt;""),G3-G4,"")</f>
+        <v>-3.5807291666666852E-3</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="2"/>
+        <v>-3.22265625E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" ref="I5:I28" si="3">IF(E5&gt;0,E5/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J28" si="4">IF(F5&gt;0,F5/$H$2,"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L5" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L6" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L7" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L9" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K11" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K12" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L12" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K13" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K15" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="str">
+        <f>IF(C17&gt;0,C17/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>IF(D17&gt;0,D17/$H$2,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K17" s="21" t="str">
+        <f>IF(AND(G17&lt;&gt;"",G16&lt;&gt;""),G16-G17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ref="G18:G28" si="5">IF(C18&gt;0,C18/$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" ref="H18:H28" si="6">IF(D18&gt;0,D18/$H$2,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K18" s="21" t="str">
+        <f t="shared" ref="K18:L28" si="7">IF(AND(G18&lt;&gt;"",G17&lt;&gt;""),G17-G18,"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L19" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K20" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L20" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L21" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K22" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L22" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K23" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L23" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K24" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L24" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L25" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K26" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L26" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K27" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L27" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K28" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L28" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/память.xlsx
+++ b/память.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD18AB56-8425-439F-B101-BEE42395DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C44CF5-7CA4-4B4A-95ED-E98A4AAA3825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="1800" windowWidth="12600" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2142,7 +2142,7 @@
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2282,17 +2282,21 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="16">
+        <v>13048</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1014</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42473958333333334</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4951171875</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ref="I5:I28" si="3">IF(E5&gt;0,E5/$G$2,"")</f>
@@ -2302,13 +2306,13 @@
         <f t="shared" ref="J5:J28" si="4">IF(F5&gt;0,F5/$H$2,"")</f>
         <v/>
       </c>
-      <c r="K5" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L5" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="K5" s="21">
+        <f t="shared" si="2"/>
+        <v>-6.0546874999999889E-3</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="2"/>
+        <v>-1.171875E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -3026,12 +3030,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
